--- a/Data/ConfigData/LeaveMusterConfig.xlsx
+++ b/Data/ConfigData/LeaveMusterConfig.xlsx
@@ -103,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -124,6 +124,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,15 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +161,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -179,6 +194,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +224,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -208,45 +239,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -255,21 +270,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +284,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,13 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,150 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,9 +504,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -541,21 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -564,162 +575,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1162,7 +1162,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>

--- a/Data/ConfigData/LeaveMusterConfig.xlsx
+++ b/Data/ConfigData/LeaveMusterConfig.xlsx
@@ -254,6 +254,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -261,13 +268,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -290,78 +290,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,31 +386,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,30 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,18 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +578,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,7 +596,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -608,115 +608,115 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
